--- a/posesiones/1381312.xlsx
+++ b/posesiones/1381312.xlsx
@@ -1901,10 +1901,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2095,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>14</v>
@@ -2148,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>14</v>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2251,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>5</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2354,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12">
         <v>22</v>
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2457,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R14">
         <v>11</v>
@@ -2507,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2554,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2601,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2651,7 +2651,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2704,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R19">
         <v>11</v>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2804,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2854,7 +2854,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R22">
         <v>13</v>
@@ -2907,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R23">
         <v>13</v>
@@ -2957,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R25">
         <v>19</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3110,7 +3110,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R27">
         <v>7</v>
@@ -3163,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3213,7 +3213,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R29">
         <v>6</v>
@@ -3263,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3454,7 +3454,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R34">
         <v>4</v>
@@ -3507,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3557,7 +3557,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R36">
         <v>12</v>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3657,7 +3657,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R38">
         <v>18</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3760,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R40">
         <v>23</v>
@@ -3810,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3910,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R43">
         <v>18</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4010,7 +4010,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R45">
         <v>12</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4154,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R48">
         <v>12</v>
@@ -4207,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R49">
         <v>12</v>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4307,7 +4307,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R51">
         <v>13</v>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R53">
         <v>12</v>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4507,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4842,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4892,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R64">
         <v>30</v>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5092,7 +5092,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R67">
         <v>19</v>
@@ -5142,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5189,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5236,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5286,7 +5286,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R71">
         <v>21</v>
@@ -5339,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R72">
         <v>18</v>
@@ -5392,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5442,7 +5442,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R74">
         <v>10</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5542,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R76">
         <v>21</v>
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5645,7 +5645,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R78">
         <v>8</v>
@@ -5698,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5745,7 +5745,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5798,7 +5798,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R81">
         <v>6</v>
@@ -5848,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5895,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5945,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5995,7 +5995,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R85">
         <v>20</v>
@@ -6045,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6092,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6139,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6189,7 +6189,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R89">
         <v>18</v>
@@ -6242,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6289,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6336,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6383,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6430,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6477,7 +6477,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6527,7 +6527,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R96">
         <v>7</v>
@@ -6580,7 +6580,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R97">
         <v>22</v>
@@ -6633,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6683,7 +6683,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R99">
         <v>10</v>
@@ -6736,7 +6736,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6783,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6830,7 +6830,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6877,7 +6877,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6924,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7018,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7068,7 +7068,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R107">
         <v>5</v>
@@ -7118,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7165,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7215,7 +7215,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R110">
         <v>18</v>
@@ -7268,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7318,7 +7318,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R112">
         <v>20</v>
@@ -7371,7 +7371,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R113">
         <v>25</v>
@@ -7421,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7471,7 +7471,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R115">
         <v>10</v>
@@ -7521,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7618,7 +7618,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R118">
         <v>0</v>
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7721,7 +7721,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R120">
         <v>15</v>
@@ -7774,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7824,7 +7824,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R122">
         <v>5</v>
@@ -7874,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7921,7 +7921,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7968,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -8018,7 +8018,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R126">
         <v>0</v>
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8121,7 +8121,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R128">
         <v>12</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8221,7 +8221,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R130">
         <v>8</v>
@@ -8265,10 +8265,10 @@
         <v>1</v>
       </c>
       <c r="P131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q131">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8309,10 +8309,10 @@
         <v>1</v>
       </c>
       <c r="P132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q132">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8359,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8456,7 +8456,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R135">
         <v>12</v>
@@ -8509,7 +8509,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R136">
         <v>20</v>
@@ -8562,7 +8562,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8612,7 +8612,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R138">
         <v>15</v>
@@ -8662,7 +8662,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8712,7 +8712,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R140">
         <v>5</v>
@@ -8762,7 +8762,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8809,7 +8809,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8859,7 +8859,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R143">
         <v>24</v>
@@ -8912,7 +8912,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R144">
         <v>16</v>
@@ -8962,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -9009,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9059,7 +9059,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9109,7 +9109,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R148">
         <v>23</v>
@@ -9162,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9209,7 +9209,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9256,7 +9256,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9306,7 +9306,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R152">
         <v>15</v>
@@ -9359,7 +9359,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9409,7 +9409,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R154">
         <v>19</v>
@@ -9462,7 +9462,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9512,7 +9512,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R156">
         <v>4</v>
@@ -9562,7 +9562,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9612,7 +9612,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R158">
         <v>19</v>
@@ -9665,7 +9665,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R159">
         <v>20</v>
@@ -9718,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9768,7 +9768,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R161">
         <v>14</v>
@@ -9818,7 +9818,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9868,7 +9868,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R163">
         <v>5</v>
@@ -9918,7 +9918,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -10015,7 +10015,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10065,7 +10065,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R167">
         <v>29</v>
@@ -10118,7 +10118,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R168">
         <v>11</v>
@@ -10168,7 +10168,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10259,7 +10259,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10306,7 +10306,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10353,7 +10353,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10400,7 +10400,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10447,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10494,7 +10494,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10544,7 +10544,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R177">
         <v>18</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R179">
         <v>17</v>
@@ -10700,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10747,7 +10747,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10794,7 +10794,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10888,7 +10888,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10935,7 +10935,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10982,7 +10982,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -11032,7 +11032,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R187">
         <v>29</v>
@@ -11082,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11132,7 +11132,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R189">
         <v>24</v>
@@ -11182,7 +11182,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11229,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11279,7 +11279,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11329,7 +11329,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R193">
         <v>14</v>
@@ -11376,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11426,7 +11426,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R195">
         <v>17</v>
@@ -11476,7 +11476,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11523,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11570,7 +11570,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11664,7 +11664,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11714,7 +11714,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11764,7 +11764,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R202">
         <v>9</v>
@@ -11814,7 +11814,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11861,7 +11861,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11911,7 +11911,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R205">
         <v>16</v>
@@ -11964,7 +11964,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R206">
         <v>20</v>
@@ -12017,7 +12017,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12067,7 +12067,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R208">
         <v>8</v>
@@ -12117,7 +12117,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12167,7 +12167,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R210">
         <v>14</v>
@@ -12217,7 +12217,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12267,7 +12267,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R212">
         <v>5</v>
@@ -12317,7 +12317,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12367,7 +12367,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R214">
         <v>13</v>
@@ -12417,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12464,7 +12464,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12558,7 +12558,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12608,7 +12608,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R219">
         <v>12</v>
@@ -12658,7 +12658,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12708,7 +12708,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R221">
         <v>0</v>
@@ -12758,7 +12758,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12805,7 +12805,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12855,7 +12855,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12905,7 +12905,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R225">
         <v>18</v>
@@ -12958,7 +12958,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R226">
         <v>14</v>
@@ -13011,7 +13011,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R227">
         <v>21</v>
@@ -13061,7 +13061,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13111,7 +13111,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R229">
         <v>13</v>
@@ -13164,7 +13164,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13214,7 +13214,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R231">
         <v>12</v>
@@ -13264,7 +13264,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13311,7 +13311,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13361,7 +13361,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13411,7 +13411,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R235">
         <v>27</v>
@@ -13461,7 +13461,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13511,7 +13511,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R237">
         <v>21</v>
@@ -13564,7 +13564,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13614,7 +13614,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R239">
         <v>3</v>
@@ -13658,10 +13658,10 @@
         <v>1</v>
       </c>
       <c r="P240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q240">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13708,7 +13708,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13755,7 +13755,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13849,7 +13849,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13896,7 +13896,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13943,7 +13943,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13990,7 +13990,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -14037,7 +14037,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14084,7 +14084,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14131,7 +14131,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14172,10 +14172,10 @@
         <v>1</v>
       </c>
       <c r="P251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q251">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14225,7 +14225,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R252">
         <v>11</v>
@@ -14278,7 +14278,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14328,7 +14328,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R254">
         <v>13</v>
@@ -14381,7 +14381,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14428,7 +14428,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14475,7 +14475,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14525,7 +14525,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R258">
         <v>21</v>
@@ -14575,7 +14575,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14625,7 +14625,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R260">
         <v>16</v>
@@ -14675,7 +14675,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14722,7 +14722,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14775,7 +14775,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R263">
         <v>2</v>
@@ -14825,7 +14825,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14875,7 +14875,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R265">
         <v>5</v>
@@ -14925,7 +14925,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14972,7 +14972,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -15022,7 +15022,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R268">
         <v>0</v>
@@ -15075,7 +15075,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15122,7 +15122,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15169,7 +15169,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15219,7 +15219,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R272">
         <v>30</v>
@@ -15272,7 +15272,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15322,7 +15322,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R274">
         <v>9</v>
@@ -15375,7 +15375,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15422,7 +15422,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15469,7 +15469,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15519,7 +15519,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R278">
         <v>28</v>
@@ -15572,7 +15572,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15622,7 +15622,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R280">
         <v>7</v>
@@ -15672,7 +15672,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15722,7 +15722,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R282">
         <v>13</v>
@@ -15775,7 +15775,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15822,7 +15822,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15872,7 +15872,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15922,7 +15922,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R286">
         <v>16</v>
@@ -15972,7 +15972,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -16022,7 +16022,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R288">
         <v>18</v>
@@ -16075,7 +16075,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R289">
         <v>23</v>
@@ -16125,7 +16125,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16172,7 +16172,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16222,7 +16222,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R292">
         <v>0</v>
@@ -16275,7 +16275,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R293">
         <v>13</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R294">
         <v>9</v>
@@ -16378,7 +16378,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16425,7 +16425,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16475,7 +16475,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16525,7 +16525,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R298">
         <v>23</v>
@@ -16578,7 +16578,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R299">
         <v>15</v>
@@ -16631,7 +16631,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R300">
         <v>5</v>
@@ -16681,7 +16681,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16731,7 +16731,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R302">
         <v>16</v>
@@ -16781,7 +16781,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16831,7 +16831,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16881,7 +16881,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R305">
         <v>24</v>
@@ -16931,7 +16931,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16975,7 +16975,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -17022,7 +17022,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -17069,7 +17069,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17119,7 +17119,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R310">
         <v>24</v>
@@ -17172,7 +17172,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R311">
         <v>26</v>
@@ -17225,7 +17225,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17275,7 +17275,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R313">
         <v>16</v>
@@ -17328,7 +17328,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17375,7 +17375,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17422,7 +17422,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17469,7 +17469,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17516,7 +17516,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17563,7 +17563,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17610,7 +17610,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17657,7 +17657,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17704,7 +17704,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17751,7 +17751,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17801,7 +17801,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R324">
         <v>10</v>
@@ -17854,7 +17854,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17904,7 +17904,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R326">
         <v>10</v>
@@ -17957,7 +17957,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R327">
         <v>18</v>
@@ -18010,7 +18010,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -18060,7 +18060,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R329">
         <v>25</v>
@@ -18113,7 +18113,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18160,7 +18160,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18207,7 +18207,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18254,7 +18254,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18301,7 +18301,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18348,7 +18348,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18395,7 +18395,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18442,7 +18442,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18489,7 +18489,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18536,7 +18536,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18586,7 +18586,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R340">
         <v>24</v>
@@ -18639,7 +18639,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18689,7 +18689,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R342">
         <v>14</v>
@@ -18739,7 +18739,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18786,7 +18786,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18836,7 +18836,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R345">
         <v>0</v>
@@ -18889,7 +18889,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R346">
         <v>25</v>
@@ -18942,7 +18942,7 @@
         <v>1</v>
       </c>
       <c r="Q347">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R347">
         <v>13</v>
@@ -18995,7 +18995,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -19045,7 +19045,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R349">
         <v>5</v>
@@ -19095,7 +19095,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19145,7 +19145,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R351">
         <v>25</v>
@@ -19198,7 +19198,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19248,7 +19248,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R353">
         <v>18</v>
@@ -19301,7 +19301,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R354">
         <v>17</v>
@@ -19351,7 +19351,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19401,7 +19401,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19448,7 +19448,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19495,7 +19495,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19542,7 +19542,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19592,7 +19592,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R360">
         <v>12</v>
@@ -19642,7 +19642,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19692,7 +19692,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R362">
         <v>0</v>
@@ -19736,10 +19736,10 @@
         <v>1</v>
       </c>
       <c r="P363" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q363">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19786,7 +19786,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19833,7 +19833,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19874,10 +19874,10 @@
         <v>1</v>
       </c>
       <c r="P366" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q366">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19927,7 +19927,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R367">
         <v>10</v>
@@ -19980,7 +19980,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R368">
         <v>5</v>
@@ -20030,7 +20030,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -20080,7 +20080,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R370">
         <v>5</v>
@@ -20133,7 +20133,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R371">
         <v>15</v>
@@ -20183,7 +20183,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20233,7 +20233,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R373">
         <v>18</v>
@@ -20283,7 +20283,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20330,7 +20330,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20377,7 +20377,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20427,7 +20427,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R377">
         <v>25</v>
@@ -20480,7 +20480,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R378">
         <v>8</v>
@@ -20533,7 +20533,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R379">
         <v>2</v>
@@ -20583,7 +20583,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20633,7 +20633,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R381">
         <v>4</v>
@@ -20683,7 +20683,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20733,7 +20733,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R383">
         <v>18</v>
@@ -20786,7 +20786,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R384">
         <v>13</v>
@@ -20839,7 +20839,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20889,7 +20889,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R386">
         <v>11</v>
@@ -20942,7 +20942,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R387">
         <v>20</v>
@@ -20995,7 +20995,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -21042,7 +21042,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -21089,7 +21089,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21136,7 +21136,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21186,7 +21186,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R392">
         <v>10</v>
@@ -21239,7 +21239,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R393">
         <v>19</v>
@@ -21292,7 +21292,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R394">
         <v>25</v>
@@ -21345,7 +21345,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R395">
         <v>22</v>
@@ -21395,7 +21395,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21445,7 +21445,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R397">
         <v>4</v>
@@ -21495,7 +21495,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21542,7 +21542,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21589,7 +21589,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21636,7 +21636,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21683,7 +21683,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21730,7 +21730,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21777,7 +21777,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21824,7 +21824,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21871,7 +21871,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21921,7 +21921,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R407">
         <v>25</v>
@@ -21974,7 +21974,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -22024,7 +22024,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R409">
         <v>25</v>
@@ -22077,7 +22077,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22127,7 +22127,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R411">
         <v>10</v>
@@ -22180,7 +22180,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R412">
         <v>13</v>
@@ -22230,7 +22230,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22277,7 +22277,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22327,7 +22327,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R415">
         <v>13</v>
@@ -22377,7 +22377,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22424,7 +22424,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22471,7 +22471,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22521,7 +22521,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R419">
         <v>0</v>
@@ -22571,7 +22571,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22621,7 +22621,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22668,7 +22668,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22718,7 +22718,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22812,7 +22812,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22859,7 +22859,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22909,7 +22909,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R427">
         <v>37</v>
@@ -22962,7 +22962,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R428">
         <v>20</v>
@@ -23015,7 +23015,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -23065,7 +23065,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R430">
         <v>9</v>
@@ -23115,7 +23115,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23165,7 +23165,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R432">
         <v>14</v>
@@ -23218,7 +23218,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R433">
         <v>19</v>
@@ -23268,7 +23268,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23318,7 +23318,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R435">
         <v>11</v>
@@ -23368,7 +23368,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23415,7 +23415,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23462,7 +23462,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23556,7 +23556,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23603,7 +23603,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23650,7 +23650,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23747,7 +23747,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R444">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23850,7 +23850,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R446">
         <v>25</v>
@@ -23903,7 +23903,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23953,7 +23953,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R448">
         <v>9</v>
@@ -24003,7 +24003,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -24050,7 +24050,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -24097,7 +24097,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24194,7 +24194,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24241,7 +24241,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24288,7 +24288,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24335,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24479,7 +24479,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R459">
         <v>48</v>
@@ -24529,7 +24529,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24579,7 +24579,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R461">
         <v>9</v>
@@ -24632,7 +24632,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24679,7 +24679,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24726,7 +24726,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24776,7 +24776,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R465">
         <v>16</v>
@@ -24826,7 +24826,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24876,7 +24876,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R467">
         <v>4</v>
@@ -24926,7 +24926,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -25020,7 +25020,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -25070,7 +25070,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -25120,7 +25120,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R472">
         <v>2</v>
@@ -25170,7 +25170,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25217,7 +25217,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25267,7 +25267,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25317,7 +25317,7 @@
         <v>1</v>
       </c>
       <c r="Q476">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R476">
         <v>29</v>
@@ -25367,7 +25367,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25417,7 +25417,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25467,7 +25467,7 @@
         <v>1</v>
       </c>
       <c r="Q479">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R479">
         <v>7</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25664,7 +25664,7 @@
         <v>1</v>
       </c>
       <c r="Q483">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="R483">
         <v>7</v>
@@ -25714,7 +25714,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25755,10 +25755,10 @@
         <v>1</v>
       </c>
       <c r="P485" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q485">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25799,7 +25799,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
